--- a/data/albums.xlsx
+++ b/data/albums.xlsx
@@ -8,30 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\University\data analysis\work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A34B2-F976-4BF2-B539-7C1773EF2E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD208641-E9A2-4F5C-96CE-4DB8FB38DF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>AlbumID</t>
-  </si>
-  <si>
-    <t>Album Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>GenreID</t>
   </si>
@@ -106,6 +109,57 @@
   </si>
   <si>
     <t>Rock In Rio [CD1]</t>
+  </si>
+  <si>
+    <t>Альбом ID</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Стоимость $</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>eg</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>erg</t>
   </si>
 </sst>
 </file>
@@ -165,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,11 +270,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +306,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,349 +601,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3AC85F-FE7F-4A43-8843-FE0D2C862A19}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D24"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f ca="1">RANDBETWEEN(1, 50)</f>
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E24" ca="1" si="0">RANDBETWEEN(1, 50)</f>
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6">
         <v>8</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="E18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6">
         <v>8</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>95</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6">
         <v>3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="E20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>102</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="E21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>104</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E22" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="E23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>108</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="9">
         <v>90</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
